--- a/biology/Médecine/Iléus_paralytique/Iléus_paralytique.xlsx
+++ b/biology/Médecine/Iléus_paralytique/Iléus_paralytique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il%C3%A9us_paralytique</t>
+          <t>Iléus_paralytique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iléus paralytique est une hypomotricité intestinale d'origine fonctionnelle. Il peut aller jusqu'à un arrêt total du transit intestinal.
-Ce traumatisme peut être[1] :
+Ce traumatisme peut être :
 mécanique, comme dans la plaie par impact ;
 chimique, comme dans la perforation d'ulcère digestif ;
 infectieux, comme dans la péritonite ;
 inflammatoire, comme dans la pancréatite ;
 métabolique, comme dans l'hypokaliémie ;
-médicamenteux, comme les opiacés[2].
-Des vomissements et un arrêt des matières et des gaz sont survenus, avec parfois une haleine fécaloïde[1].
+médicamenteux, comme les opiacés.
+Des vomissements et un arrêt des matières et des gaz sont survenus, avec parfois une haleine fécaloïde.
 </t>
         </is>
       </c>
